--- a/medicine/Enfance/Jean-Hugues_Oppel/Jean-Hugues_Oppel.xlsx
+++ b/medicine/Enfance/Jean-Hugues_Oppel/Jean-Hugues_Oppel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Hugues Oppel, né le 9 novembre 1957 à Paris, est un écrivain français, auteur de romans noirs et d'ouvrages pour la jeunesse. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'origine franco-suisse. Jean-Hugues Oppel fait ses études au lycée Charlemagne (Paris), puis à l'École nationale d'opérateurs Louis-Lumière. Il travaille ensuite comme deuxième assistant caméra sur plusieurs tournages, notamment les films Saxo d'Ariel Zeitoun (1987), Lacenaire de Francis Girod (1990), La Passion Béatrice (1987) et La Vie et rien d'autre (1988) de Bertrand Tavernier. Il est également premier assistant caméra de Roman Polanski pour le film La Jeune Fille et la Mort (1994).[réf. nécessaire]
 En 1983, il se lance dans l'écriture de romans noirs, tout d'abord en commun avec Philippe Dorison pour son premier roman Canine et Gun, puis seul pour son roman parodique Barjot !. Il écrit aussi des ouvrages de littérature d'enfance et de jeunesse à partir de 1993.
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Canine et Gunn (avec Dorison), Gallimard, coll. Série noire no 1940, 1983
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Canine et Gunn (avec Dorison), Gallimard, coll. Série noire no 1940, 1983
 Barjot !, Gallimard, coll. Série noire no 2119, 1988,  (ISBN 2070491196) ; réédition Rivages/Noir (n°806), 2011 ; réédition Archipoche, 2018
 Zaune, Gallimard, coll. Série noire no 2257, 1991 ; réédition dans la même collection avec une nouvelle couverture en 2004
 Piraña Matador, Gallimard, coll. Série noire no 2287, 1992 ; réédition,  Gallimard, coll. Folio policier no 217, 2001
@@ -557,7 +576,7 @@
 Ténèbre, Rivages/Noir no 285, 1998. (Prix Sang d'encre 1998)
 Cartago, Rivages/Noir no 346, 2000 (Trophée 813 2000)
 Chaton : trilogie, Rivages/Noir no 418, 2002 (Prix Polar 2002 du Salon « Polar &amp; Co » de Cognac - Prix Sang d'encre des Lycéens à Vienne)
-Fatale liaison, Rivages Noir, 2003, Un polar dont vous êtes le héros,  (ISBN 9782743610821)[1]
+Fatale liaison, Rivages Noir, 2003, Un polar dont vous êtes le héros,  (ISBN 9782743610821)
 Bande avant, 6 pieds sous terre, 2004 (illustrations de Joe G. Pinelli)
 French tabloïds, Rivages-Thriller, 2005 ; réédition Rivages/Noir no 704, 2008  (ISBN 978-2-7436-1855-1)
 La Déposition du tireur caché, Editions La Branche, coll. "Suite noire" no 8, 2006
@@ -565,16 +584,118 @@
 Vostok, Rivages/Noir no 900, 2013
 19 500 dollars la tonne, La Manufacture de livres, 2017  (ISBN 978-2-35887-151-8) ; rééd. J'ai lu Policier, 2019.
 Total labrador, La Manufacture de livres, 2019, 340 p.  (ISBN 978-2-35887-273-7)
-Noir Diamant, La Manufacture de livres, 2021
-Recueils de nouvelles
-Un tigre chaque matin, Le Poiré-sur-Vie :  la Loupiote, coll. "Tamanoir" n° 5, 01/1998, 192 p.  (ISBN 2-911222-24-5) ; rééd. Paris : Lignes noires, 11/2000, 234 p.  (ISBN 2-914073-13-5)
-Au saut de la louve, Rivages/Noir no 530, 2004
-Bandes dessinées
-Carton blême / adaptation Jean-Hugues Oppel d'après le roman de Pierre Siniac ; dessin Boris Beuzelin. Coéd. Casterman-Rivages, coll. « Rivages-Casterman-noir », juin 2013, 92 p.  (ISBN 978-2-203-02581-3)
+Noir Diamant, La Manufacture de livres, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un tigre chaque matin, Le Poiré-sur-Vie :  la Loupiote, coll. "Tamanoir" n° 5, 01/1998, 192 p.  (ISBN 2-911222-24-5) ; rééd. Paris : Lignes noires, 11/2000, 234 p.  (ISBN 2-914073-13-5)
+Au saut de la louve, Rivages/Noir no 530, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Carton blême / adaptation Jean-Hugues Oppel d'après le roman de Pierre Siniac ; dessin Boris Beuzelin. Coéd. Casterman-Rivages, coll. « Rivages-Casterman-noir », juin 2013, 92 p.  (ISBN 978-2-203-02581-3)
 Brouillard au pont de Bihac / dessin Gabriel Germain. Coéd. Casterman-Rivages, coll. « Rivages-Casterman-noir », juin 2009, 99 p.  (ISBN 978-2-203-02134-1)
-Trouille / ill. Joe G. Pinelli ; scénario Jean-Hugues Oppel, d'après le roman de Marc Behm. Coéd. Casterman-Rivages, coll. « Rivages-Casterman-noir », mai 2009, 93 p.  (ISBN 978-2-203-01212-7)
-Romans pour la jeunesse
-Série "Fais-toi peur !"
+Trouille / ill. Joe G. Pinelli ; scénario Jean-Hugues Oppel, d'après le roman de Marc Behm. Coéd. Casterman-Rivages, coll. « Rivages-Casterman-noir », mai 2009, 93 p.  (ISBN 978-2-203-01212-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Série "Fais-toi peur !"
 Ippon, Syros jeunesse, coll. "Souris noire" no 33, 1993 ; réédition Syros jeunesse, coll. "Souris noire poche" no 4, 1997  (ISBN 2-84146-433-4) ; réédition, Syros, coll. "Souris noire" no 4, 2004  (Prix du livre de l'été jeunesse Metz 1994 - Prix des lecteurs en herbe Bègles 1995)
 Nuit rouge, Syros jeunesse, coll. "Souris noire" no 39, 1995
 Dans le grand bain, Syros jeunesse, coll. "Souris noire" no 28, 1999  (ISBN 2-84146-646-9) ; réédition, Syros, coll. "Souris noire", 2005 (Prix du roman jeune de La Mayenne - Laval 2000)
@@ -600,36 +721,75 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jean-Hugues_Oppel</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean-Hugues_Oppel</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Scénario
-La Colère d'une mère (téléfilm, 1996). Réal. : Jacques Malaterre. Scén. : Sophie Bottaï, Jean-Hugues Oppel et Anne Landois. Interp. : Anne Richard (Marianne Lefèvre), Erick Deshors (Jacques Lefèvre), Nathalie Cardone (Sandrine Dupin), Josy Bernard (le substitut), Frédéric Berthelot (le juge d’instruction), Jean-Louis Tubes crush
-Premier assistant-opérateur
-Histoires d’ombres (téléfilm, 1980) de Denys Granier-Deferre
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Scénario</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Colère d'une mère (téléfilm, 1996). Réal. : Jacques Malaterre. Scén. : Sophie Bottaï, Jean-Hugues Oppel et Anne Landois. Interp. : Anne Richard (Marianne Lefèvre), Erick Deshors (Jacques Lefèvre), Nathalie Cardone (Sandrine Dupin), Josy Bernard (le substitut), Frédéric Berthelot (le juge d’instruction), Jean-Louis Tubes crush</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Premier assistant-opérateur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Histoires d’ombres (téléfilm, 1980) de Denys Granier-Deferre
 Navarro: Fils de Périph’ &amp; Folies de Flic (téléfilm, 1989) de Denys Granier-Deferre
 Fantômes sur l'oreiller (téléfilm) de Pierre Mondy
 Haute Tension - (téléfilm, 1990) Secrets de famille de Danièle Suissa
@@ -637,9 +797,43 @@
 Lunes de fiel (Bitter moon) (1992) de Roman Polanski (raccords)
 La Soif de l'or de Gérard Oury
 La Jeune Fille et la Mort (Death and the maiden) de Roman Polanski
-Fantôme avec chauffeur (1995) de Gérard Oury (2e équipe)
-Second assistant-opérateur
-On a volé Charlie-Spencer (1986). Réal. : Francis Huster.
+Fantôme avec chauffeur (1995) de Gérard Oury (2e équipe)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Second assistant-opérateur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a volé Charlie-Spencer (1986). Réal. : Francis Huster.
 La Passion Béatrice (1987). Réal. : Bertrand Tavernier.
 Saxo (1987). Réal. : Ariel Zeitoun. 2e équipe
 Le Professeur : la diva et 385 $ l'once (téléfilm, 1987). Réal. Sténo (+ 1er assistant 2e équipe)
@@ -648,54 +842,91 @@
 Impromptu (1989). Réal. : James Lapine.
 Lacenaire (1990). Réal. : Francis Girod. Scén. : Georges Conchon et Francis Girod
 Principaux directeurs de la photographie : Daniel Vogel, Silvano Ippoliti, Bruno de Keyzer, Gilberto Azevedo, Tonino Delli Colli, Robert Fraisse
-Adaptation
-Six-pack (1999, France). Réal. : Alain Berbérian. Scén. : d’après le roman de Jean-Hugues Oppel. Script-doctor : Jean-Christophe Grangé. Mus. : Elia Cmiral. Durée : 1h44. Interp. : Richard Anconina (Nathan), Frédéric Diefenthal (Philippe Saule), Chiara Mastroianni (Marine), Bernard Fresson (Paul Benetti / Fouquier), Carole Richert (Hélène Moulinier). 1re télédiffusion : mercredi 11/05/2001 (Canal+).</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jean-Hugues_Oppel</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean-Hugues_Oppel</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Six-pack (1999, France). Réal. : Alain Berbérian. Scén. : d’après le roman de Jean-Hugues Oppel. Script-doctor : Jean-Christophe Grangé. Mus. : Elia Cmiral. Durée : 1h44. Interp. : Richard Anconina (Nathan), Frédéric Diefenthal (Philippe Saule), Chiara Mastroianni (Marine), Bernard Fresson (Paul Benetti / Fouquier), Carole Richert (Hélène Moulinier). 1re télédiffusion : mercredi 11/05/2001 (Canal+).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Hugues_Oppel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>1994
 Prix du livre de l'été jeunesse Metz pour Ippon
 1995
 Prix des lecteurs en herbe Bègles pour Ippon
-Prix Mystère de la critique pour Brocéliande sur Marne[2]
+Prix Mystère de la critique pour Brocéliande sur Marne
 1996
-Grand prix de littérature policière pour Ambernave[3]
+Grand prix de littérature policière pour Ambernave
 1997
-Prix Sang d'encre pour Ténèbre[4]
+Prix Sang d'encre pour Ténèbre
 2000
-Trophée 813 pour Cartago[5]
+Trophée 813 pour Cartago
 Prix du roman jeune de La Mayenne - Laval pour Dans le grand bain
 2002
-Prix Polar du Salon « Polar &amp; Co »  de Cognac pour Chaton : trilogie[6]
-Prix Sang d'encre des lycéens pour Chaton : trilogie[7]
+Prix Polar du Salon « Polar &amp; Co »  de Cognac pour Chaton : trilogie
+Prix Sang d'encre des lycéens pour Chaton : trilogie
 2006
-Prix Mystère de la critique pour French Tabloïds[2]</t>
+Prix Mystère de la critique pour French Tabloïds</t>
         </is>
       </c>
     </row>
